--- a/nlp/sp_goods_2.xlsx
+++ b/nlp/sp_goods_2.xlsx
@@ -85,103 +85,103 @@
     <t>позумент</t>
   </si>
   <si>
+    <t>чулок</t>
+  </si>
+  <si>
     <t>выбойка</t>
   </si>
   <si>
+    <t>сахар</t>
+  </si>
+  <si>
     <t>шелк</t>
   </si>
   <si>
-    <t>сахар</t>
-  </si>
-  <si>
-    <t>чулок</t>
+    <t>лыко</t>
   </si>
   <si>
     <t>лес</t>
   </si>
   <si>
-    <t>лыко</t>
+    <t>ладан</t>
+  </si>
+  <si>
+    <t>сапог</t>
+  </si>
+  <si>
+    <t>китайка</t>
   </si>
   <si>
     <t>коса</t>
   </si>
   <si>
-    <t>ладан</t>
-  </si>
-  <si>
     <t>сани</t>
   </si>
   <si>
-    <t>сапог</t>
-  </si>
-  <si>
-    <t>китайка</t>
+    <t>платок</t>
+  </si>
+  <si>
+    <t>ром</t>
+  </si>
+  <si>
+    <t>обод</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>овца</t>
   </si>
   <si>
     <t>горшок</t>
   </si>
   <si>
-    <t>платок</t>
-  </si>
-  <si>
     <t>рогожа</t>
   </si>
   <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>ром</t>
-  </si>
-  <si>
-    <t>обод</t>
-  </si>
-  <si>
     <t>замок</t>
   </si>
   <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>веревка</t>
+    <t>сосуд</t>
+  </si>
+  <si>
+    <t>покроми</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>нитка</t>
+  </si>
+  <si>
+    <t>сковорода</t>
   </si>
   <si>
     <t>дуга</t>
   </si>
   <si>
-    <t>гумми</t>
-  </si>
-  <si>
-    <t>сосуд</t>
-  </si>
-  <si>
-    <t>покроми</t>
-  </si>
-  <si>
-    <t>нитка</t>
-  </si>
-  <si>
     <t>котел</t>
   </si>
   <si>
+    <t>роза</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
     <t>бечева</t>
   </si>
   <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
     <t>брусья</t>
-  </si>
-  <si>
-    <t>сковорода</t>
   </si>
 </sst>
 </file>

--- a/nlp/sp_goods_2.xlsx
+++ b/nlp/sp_goods_2.xlsx
@@ -61,36 +61,36 @@
     <t>железо</t>
   </si>
   <si>
+    <t>колеса</t>
+  </si>
+  <si>
+    <t>Крымскую соль</t>
+  </si>
+  <si>
     <t>полотно</t>
   </si>
   <si>
-    <t>колеса</t>
-  </si>
-  <si>
-    <t>Крымскую соль</t>
+    <t>парча</t>
+  </si>
+  <si>
+    <t>говядина</t>
   </si>
   <si>
     <t>сено</t>
   </si>
   <si>
-    <t>парча</t>
-  </si>
-  <si>
-    <t>говядина</t>
-  </si>
-  <si>
     <t>табак</t>
   </si>
   <si>
     <t>позумент</t>
   </si>
   <si>
+    <t>выбойка</t>
+  </si>
+  <si>
     <t>чулок</t>
   </si>
   <si>
-    <t>выбойка</t>
-  </si>
-  <si>
     <t>сахар</t>
   </si>
   <si>
@@ -103,61 +103,76 @@
     <t>лес</t>
   </si>
   <si>
+    <t>сапог</t>
+  </si>
+  <si>
+    <t>сани</t>
+  </si>
+  <si>
     <t>ладан</t>
   </si>
   <si>
-    <t>сапог</t>
+    <t>коса</t>
   </si>
   <si>
     <t>китайка</t>
   </si>
   <si>
-    <t>коса</t>
-  </si>
-  <si>
-    <t>сани</t>
+    <t>замок</t>
+  </si>
+  <si>
+    <t>овца</t>
+  </si>
+  <si>
+    <t>веревка</t>
+  </si>
+  <si>
+    <t>конь</t>
+  </si>
+  <si>
+    <t>горшок</t>
+  </si>
+  <si>
+    <t>обод</t>
   </si>
   <si>
     <t>платок</t>
   </si>
   <si>
+    <t>рогожа</t>
+  </si>
+  <si>
+    <t>гвоздь</t>
+  </si>
+  <si>
     <t>ром</t>
   </si>
   <si>
-    <t>обод</t>
-  </si>
-  <si>
-    <t>конь</t>
-  </si>
-  <si>
-    <t>гвоздь</t>
-  </si>
-  <si>
-    <t>веревка</t>
-  </si>
-  <si>
-    <t>овца</t>
-  </si>
-  <si>
-    <t>горшок</t>
-  </si>
-  <si>
-    <t>рогожа</t>
-  </si>
-  <si>
-    <t>замок</t>
-  </si>
-  <si>
     <t>сосуд</t>
   </si>
   <si>
+    <t>бечева</t>
+  </si>
+  <si>
+    <t>хомут</t>
+  </si>
+  <si>
+    <t>брусья</t>
+  </si>
+  <si>
+    <t>гумми</t>
+  </si>
+  <si>
+    <t>скотский кожа</t>
+  </si>
+  <si>
+    <t>котел</t>
+  </si>
+  <si>
     <t>покроми</t>
   </si>
   <si>
-    <t>скотский кожа</t>
-  </si>
-  <si>
-    <t>гумми</t>
+    <t>роза</t>
   </si>
   <si>
     <t>нитка</t>
@@ -167,21 +182,6 @@
   </si>
   <si>
     <t>дуга</t>
-  </si>
-  <si>
-    <t>котел</t>
-  </si>
-  <si>
-    <t>роза</t>
-  </si>
-  <si>
-    <t>хомут</t>
-  </si>
-  <si>
-    <t>бечева</t>
-  </si>
-  <si>
-    <t>брусья</t>
   </si>
 </sst>
 </file>
